--- a/data_excel/647.xlsx
+++ b/data_excel/647.xlsx
@@ -111,13 +111,14 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +492,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -660,16 +661,16 @@
       <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
